--- a/Dokumente/Nachweise_offiziell/2017_Oktober.xlsx
+++ b/Dokumente/Nachweise_offiziell/2017_Oktober.xlsx
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -675,16 +676,16 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -866,26 +867,32 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <f aca="false">IF(I13 &gt; 0, DATE($K$12, $J$12, I13), 0)</f>
-        <v>0</v>
+        <v>41571</v>
       </c>
       <c r="B13" s="17" t="n">
         <f aca="false">A13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="18" t="n">
+        <v>41571</v>
+      </c>
+      <c r="C13" s="18" t="str">
         <f aca="false">IF(G13 &gt; 0, TEXT(G13,"hh:mm")&amp;"-"&amp;TEXT(G13+(H13/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>15:00-19:00</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="19" t="n">
         <f aca="false">H13/24</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="22" t="n">
+        <v>25</v>
+      </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
     </row>
@@ -1446,7 +1453,7 @@
       <c r="D41" s="27"/>
       <c r="E41" s="28" t="n">
         <f aca="false">SUM(H12:H40)/24</f>
-        <v>0.166666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G41" s="30"/>
     </row>

--- a/Dokumente/Nachweise_offiziell/2017_Oktober.xlsx
+++ b/Dokumente/Nachweise_offiziell/2017_Oktober.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -189,7 +192,7 @@
     <numFmt numFmtId="171" formatCode="[H]&quot;h &quot;MM&quot;min&quot;"/>
     <numFmt numFmtId="172" formatCode="[HH]:MM"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +214,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -250,13 +334,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -264,14 +341,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -286,7 +355,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,14 +364,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,6 +417,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -378,13 +498,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium"/>
@@ -406,7 +519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,13 +543,61 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,87 +605,87 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -536,31 +697,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -568,7 +725,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,11 +733,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,40 +745,56 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -675,18 +848,18 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,31 +1004,31 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
         <f aca="false">IF(I12 &gt; 0, DATE($K$12, $J$12, I12), 0)</f>
-        <v>41570</v>
+        <v>41548</v>
       </c>
       <c r="B12" s="17" t="n">
         <f aca="false">A12</f>
-        <v>41570</v>
+        <v>41548</v>
       </c>
       <c r="C12" s="18" t="str">
         <f aca="false">IF(G12 &gt; 0, TEXT(G12,"hh:mm")&amp;"-"&amp;TEXT(G12+(H12/24),"hh:mm"), 0)</f>
-        <v>15:00-19:00</v>
+        <v>23:00-23:30</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="19" t="n">
         <f aca="false">H12/24</f>
-        <v>0.166666666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G12" s="20" t="n">
-        <v>0.625</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="22" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J12" s="23" t="n">
         <v>10</v>
@@ -867,31 +1040,31 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <f aca="false">IF(I13 &gt; 0, DATE($K$12, $J$12, I13), 0)</f>
-        <v>41571</v>
+        <v>41549</v>
       </c>
       <c r="B13" s="17" t="n">
         <f aca="false">A13</f>
-        <v>41571</v>
+        <v>41549</v>
       </c>
       <c r="C13" s="18" t="str">
         <f aca="false">IF(G13 &gt; 0, TEXT(G13,"hh:mm")&amp;"-"&amp;TEXT(G13+(H13/24),"hh:mm"), 0)</f>
-        <v>15:00-19:00</v>
+        <v>22:00-22:30</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="19" t="n">
         <f aca="false">H13/24</f>
-        <v>0.166666666666667</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G13" s="20" t="n">
-        <v>0.625</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="22" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -899,416 +1072,512 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="n">
         <f aca="false">IF(I14 &gt; 0, DATE($K$12, $J$12, I14), 0)</f>
-        <v>0</v>
+        <v>41550</v>
       </c>
       <c r="B14" s="17" t="n">
         <f aca="false">A14</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="18" t="n">
+        <v>41550</v>
+      </c>
+      <c r="C14" s="18" t="str">
         <f aca="false">IF(G14 &gt; 0, TEXT(G14,"hh:mm")&amp;"-"&amp;TEXT(G14+(H14/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:30-00:00</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="19" t="n">
         <f aca="false">H14/24</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="22" t="n">
+        <v>4</v>
+      </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="n">
         <f aca="false">IF(I15 &gt; 0, DATE($K$12, $J$12, I15), 0)</f>
-        <v>0</v>
+        <v>41553</v>
       </c>
       <c r="B15" s="17" t="n">
         <f aca="false">A15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="18" t="n">
+        <v>41553</v>
+      </c>
+      <c r="C15" s="18" t="str">
         <f aca="false">IF(G15 &gt; 0, TEXT(G15,"hh:mm")&amp;"-"&amp;TEXT(G15+(H15/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>02:00-02:30</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="19" t="n">
         <f aca="false">H15/24</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="22" t="n">
+        <v>7</v>
+      </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="n">
         <f aca="false">IF(I16 &gt; 0, DATE($K$12, $J$12, I16), 0)</f>
-        <v>0</v>
+        <v>41554</v>
       </c>
       <c r="B16" s="17" t="n">
         <f aca="false">A16</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="18" t="n">
+        <v>41554</v>
+      </c>
+      <c r="C16" s="18" t="str">
         <f aca="false">IF(G16 &gt; 0, TEXT(G16,"hh:mm")&amp;"-"&amp;TEXT(G16+(H16/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:00-23:30</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="19" t="n">
         <f aca="false">H16/24</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="22" t="n">
+        <v>8</v>
+      </c>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="n">
         <f aca="false">IF(I17 &gt; 0, DATE($K$12, $J$12, I17), 0)</f>
-        <v>0</v>
+        <v>41556</v>
       </c>
       <c r="B17" s="17" t="n">
         <f aca="false">A17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="18" t="n">
+        <v>41556</v>
+      </c>
+      <c r="C17" s="18" t="str">
         <f aca="false">IF(G17 &gt; 0, TEXT(G17,"hh:mm")&amp;"-"&amp;TEXT(G17+(H17/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:15-23:45</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="19" t="n">
         <f aca="false">H17/24</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="n">
         <f aca="false">IF(I18 &gt; 0, DATE($K$12, $J$12, I18), 0)</f>
-        <v>0</v>
+        <v>41558</v>
       </c>
       <c r="B18" s="17" t="n">
         <f aca="false">A18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18" t="n">
+        <v>41558</v>
+      </c>
+      <c r="C18" s="18" t="str">
         <f aca="false">IF(G18 &gt; 0, TEXT(G18,"hh:mm")&amp;"-"&amp;TEXT(G18+(H18/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:20-23:50</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="19" t="n">
         <f aca="false">H18/24</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G18" s="20" t="n">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="22" t="n">
+        <v>12</v>
+      </c>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <f aca="false">IF(I19 &gt; 0, DATE($K$12, $J$12, I19), 0)</f>
-        <v>0</v>
+        <v>41560</v>
       </c>
       <c r="B19" s="17" t="n">
         <f aca="false">A19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="18" t="n">
+        <v>41560</v>
+      </c>
+      <c r="C19" s="18" t="str">
         <f aca="false">IF(G19 &gt; 0, TEXT(G19,"hh:mm")&amp;"-"&amp;TEXT(G19+(H19/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>22:30-23:00</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="19" t="n">
         <f aca="false">H19/24</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="22" t="n">
+        <v>14</v>
+      </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <f aca="false">IF(I20 &gt; 0, DATE($K$12, $J$12, I20), 0)</f>
-        <v>0</v>
+        <v>41563</v>
       </c>
       <c r="B20" s="17" t="n">
         <f aca="false">A20</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="18" t="n">
+        <v>41563</v>
+      </c>
+      <c r="C20" s="18" t="str">
         <f aca="false">IF(G20 &gt; 0, TEXT(G20,"hh:mm")&amp;"-"&amp;TEXT(G20+(H20/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>06:00-10:30</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="19" t="n">
         <f aca="false">H20/24</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G20" s="20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I20" s="22" t="n">
+        <v>17</v>
+      </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <f aca="false">IF(I21 &gt; 0, DATE($K$12, $J$12, I21), 0)</f>
-        <v>0</v>
+        <v>41565</v>
       </c>
       <c r="B21" s="17" t="n">
         <f aca="false">A21</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="18" t="n">
+        <v>41565</v>
+      </c>
+      <c r="C21" s="18" t="str">
         <f aca="false">IF(G21 &gt; 0, TEXT(G21,"hh:mm")&amp;"-"&amp;TEXT(G21+(H21/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>16:00-20:30</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="19" t="n">
         <f aca="false">H21/24</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>19</v>
+      </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="n">
         <f aca="false">IF(I22 &gt; 0, DATE($K$12, $J$12, I22), 0)</f>
-        <v>0</v>
+        <v>41566</v>
       </c>
       <c r="B22" s="17" t="n">
         <f aca="false">A22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="18" t="n">
+        <v>41566</v>
+      </c>
+      <c r="C22" s="18" t="str">
         <f aca="false">IF(G22 &gt; 0, TEXT(G22,"hh:mm")&amp;"-"&amp;TEXT(G22+(H22/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>06:00-10:30</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="19" t="n">
         <f aca="false">H22/24</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G22" s="20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>20</v>
+      </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
         <f aca="false">IF(I23 &gt; 0, DATE($K$12, $J$12, I23), 0)</f>
-        <v>0</v>
+        <v>41568</v>
       </c>
       <c r="B23" s="17" t="n">
         <f aca="false">A23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="18" t="n">
+        <v>41568</v>
+      </c>
+      <c r="C23" s="18" t="str">
         <f aca="false">IF(G23 &gt; 0, TEXT(G23,"hh:mm")&amp;"-"&amp;TEXT(G23+(H23/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:30-00:00</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="19" t="n">
         <f aca="false">H23/24</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>22</v>
+      </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <f aca="false">IF(I24 &gt; 0, DATE($K$12, $J$12, I24), 0)</f>
-        <v>0</v>
+        <v>41570</v>
       </c>
       <c r="B24" s="17" t="n">
         <f aca="false">A24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="18" t="n">
+        <v>41570</v>
+      </c>
+      <c r="C24" s="18" t="str">
         <f aca="false">IF(G24 &gt; 0, TEXT(G24,"hh:mm")&amp;"-"&amp;TEXT(G24+(H24/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>15:00-19:30</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="19" t="n">
         <f aca="false">H24/24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I24" s="22" t="n">
+        <v>24</v>
+      </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
         <f aca="false">IF(I25 &gt; 0, DATE($K$12, $J$12, I25), 0)</f>
-        <v>0</v>
+        <v>41571</v>
       </c>
       <c r="B25" s="17" t="n">
         <f aca="false">A25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="n">
+        <v>41571</v>
+      </c>
+      <c r="C25" s="18" t="str">
         <f aca="false">IF(G25 &gt; 0, TEXT(G25,"hh:mm")&amp;"-"&amp;TEXT(G25+(H25/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>15:00-19:00</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="19" t="n">
         <f aca="false">H25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" s="22" t="n">
+        <v>25</v>
+      </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
         <f aca="false">IF(I26 &gt; 0, DATE($K$12, $J$12, I26), 0)</f>
-        <v>0</v>
+        <v>41572</v>
       </c>
       <c r="B26" s="17" t="n">
         <f aca="false">A26</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="18" t="n">
+        <v>41572</v>
+      </c>
+      <c r="C26" s="18" t="str">
         <f aca="false">IF(G26 &gt; 0, TEXT(G26,"hh:mm")&amp;"-"&amp;TEXT(G26+(H26/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>14:00-19:00</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="19" t="n">
         <f aca="false">H26/24</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G26" s="20" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="22" t="n">
+        <v>26</v>
+      </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <f aca="false">IF(I27 &gt; 0, DATE($K$12, $J$12, I27), 0)</f>
-        <v>0</v>
+        <v>41573</v>
       </c>
       <c r="B27" s="17" t="n">
         <f aca="false">A27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="18" t="n">
+        <v>41573</v>
+      </c>
+      <c r="C27" s="18" t="str">
         <f aca="false">IF(G27 &gt; 0, TEXT(G27,"hh:mm")&amp;"-"&amp;TEXT(G27+(H27/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:00-23:30</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">H27/24</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="22" t="n">
+        <v>27</v>
+      </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
         <f aca="false">IF(I28 &gt; 0, DATE($K$12, $J$12, I28), 0)</f>
-        <v>0</v>
+        <v>41575</v>
       </c>
       <c r="B28" s="17" t="n">
         <f aca="false">A28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="18" t="n">
+        <v>41575</v>
+      </c>
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(G28 &gt; 0, TEXT(G28,"hh:mm")&amp;"-"&amp;TEXT(G28+(H28/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>23:15-23:45</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="19" t="n">
         <f aca="false">H28/24</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="22" t="n">
+        <v>29</v>
+      </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">IF(I29 &gt; 0, DATE($K$12, $J$12, I29), 0)</f>
-        <v>0</v>
+        <v>41577</v>
       </c>
       <c r="B29" s="17" t="n">
         <f aca="false">A29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="18" t="n">
+        <v>41577</v>
+      </c>
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(G29 &gt; 0, TEXT(G29,"hh:mm")&amp;"-"&amp;TEXT(G29+(H29/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>21:00-23:00</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="19" t="n">
         <f aca="false">H29/24</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="22" t="n">
+        <v>31</v>
+      </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
@@ -1437,64 +1706,64 @@
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="26"/>
+      <c r="E40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" s="29" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
+    <row r="41" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="n">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27" t="n">
         <f aca="false">SUM(H12:H40)/24</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" s="33" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+        <v>1.4375</v>
+      </c>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" s="32" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" s="38" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39" t="s">
+    <row r="44" s="37" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" s="39" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="D45" s="39" t="s">
+      <c r="B45" s="38"/>
+      <c r="D45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1514,7 +1783,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.196527777777778" top="0.747916666666667" bottom="0.196527777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1529,18 +1798,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1555,18 +1824,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.6"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
